--- a/data/trans_orig/PCS12_SP_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C939EE9-0130-40EF-AC8B-1F9D76EEF4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{559CAAB4-866B-4BE3-8159-46EEBEED6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16D9ABF3-0F01-4F15-A255-5F6BABA511F0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{971F3A34-4373-407E-BCF9-955345F15D41}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="605">
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="614">
+  <si>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -572,10 +572,61 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>15,29%</t>
@@ -680,1180 +731,1156 @@
     <t>82,2%</t>
   </si>
   <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>26,43%</t>
   </si>
   <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>42,76%</t>
   </si>
   <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>57,24%</t>
   </si>
   <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8E2584-DED3-4A4A-8A83-D44965B15E08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BE4F61-C1C1-45A8-BB21-3015A78F4248}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3656,7 +3683,7 @@
         <v>1417</v>
       </c>
       <c r="N28" s="7">
-        <v>1436751</v>
+        <v>1436752</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>165</v>
@@ -3677,7 +3704,7 @@
         <v>2685</v>
       </c>
       <c r="D29" s="7">
-        <v>2758864</v>
+        <v>2758863</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>41</v>
@@ -3692,7 +3719,7 @@
         <v>2409</v>
       </c>
       <c r="I29" s="7">
-        <v>2460126</v>
+        <v>2460125</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>170</v>
@@ -3728,7 +3755,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3743,7 +3770,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3758,7 +3785,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3796,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CA5ADF-BEF8-4215-9A69-EE5E86931196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F1029B-E9BA-49FD-874D-51ED0A23B9C6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3914,43 +3941,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D4" s="7">
+        <v>62258</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="I4" s="7">
+        <v>100167</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="N4" s="7">
+        <v>162424</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,43 +3992,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="D5" s="7">
+        <v>232480</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>164</v>
+      </c>
+      <c r="I5" s="7">
+        <v>187078</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>387</v>
+      </c>
+      <c r="N5" s="7">
+        <v>419559</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,43 +4043,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4102,13 @@
         <v>77274</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>135</v>
@@ -4072,13 +4117,13 @@
         <v>148652</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>200</v>
@@ -4087,13 +4132,13 @@
         <v>225926</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4153,13 @@
         <v>428253</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>345</v>
@@ -4123,13 +4168,13 @@
         <v>375113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
@@ -4138,13 +4183,13 @@
         <v>803366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4257,13 @@
         <v>51891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -4227,13 +4272,13 @@
         <v>87465</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -4242,13 +4287,13 @@
         <v>139356</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4308,13 @@
         <v>272155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
@@ -4278,10 +4323,10 @@
         <v>253555</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>153</v>
@@ -4293,13 +4338,13 @@
         <v>525710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,49 +4406,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>143324</v>
+        <v>81067</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="7">
+        <v>140</v>
+      </c>
+      <c r="I13" s="7">
+        <v>144722</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M13" s="7">
         <v>215</v>
       </c>
-      <c r="H13" s="7">
-        <v>232</v>
-      </c>
-      <c r="I13" s="7">
-        <v>244889</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M13" s="7">
-        <v>366</v>
-      </c>
       <c r="N13" s="7">
-        <v>388213</v>
+        <v>225789</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,49 +4457,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>492</v>
+        <v>269</v>
       </c>
       <c r="D14" s="7">
-        <v>525396</v>
+        <v>292915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
-        <v>395</v>
+        <v>231</v>
       </c>
       <c r="I14" s="7">
-        <v>431307</v>
+        <v>244229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
-        <v>887</v>
+        <v>500</v>
       </c>
       <c r="N14" s="7">
-        <v>956703</v>
+        <v>537144</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,10 +4508,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4478,10 +4523,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4493,10 +4538,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4522,13 +4567,13 @@
         <v>47983</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -4537,13 +4582,13 @@
         <v>84009</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -4552,13 +4597,13 @@
         <v>131992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4618,13 @@
         <v>164635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -4588,13 +4633,13 @@
         <v>135582</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -4603,13 +4648,13 @@
         <v>300217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,10 +4725,10 @@
         <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -4692,13 +4737,13 @@
         <v>83000</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -4707,13 +4752,13 @@
         <v>143830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,10 +4776,10 @@
         <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -4743,13 +4788,13 @@
         <v>197031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -4758,13 +4803,13 @@
         <v>410182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4877,13 @@
         <v>98619</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4847,13 +4892,13 @@
         <v>186789</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="M22" s="7">
         <v>259</v>
@@ -4862,13 +4907,13 @@
         <v>285409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4928,13 @@
         <v>564169</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
         <v>469</v>
@@ -4898,13 +4943,13 @@
         <v>507064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="M23" s="7">
         <v>995</v>
@@ -4913,13 +4958,13 @@
         <v>1071232</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +5032,13 @@
         <v>132497</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>183</v>
@@ -5002,13 +5047,13 @@
         <v>202285</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>301</v>
@@ -5020,10 +5065,10 @@
         <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5083,13 @@
         <v>646601</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>574</v>
@@ -5053,13 +5098,13 @@
         <v>621568</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>1173</v>
@@ -5071,10 +5116,10 @@
         <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5187,13 @@
         <v>612418</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="H28" s="7">
         <v>958</v>
@@ -5157,13 +5202,13 @@
         <v>1037089</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="M28" s="7">
         <v>1518</v>
@@ -5172,13 +5217,13 @@
         <v>1649508</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5238,13 @@
         <v>2814361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="H29" s="7">
         <v>2340</v>
@@ -5208,13 +5253,13 @@
         <v>2521220</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
         <v>4989</v>
@@ -5223,13 +5268,13 @@
         <v>5335580</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C98D52-16D1-4CBC-A608-4FACC062C0E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851402D-3D48-4211-92F5-F232B402B79E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5326,7 +5371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,13 +5478,13 @@
         <v>60570</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>91</v>
@@ -5448,13 +5493,13 @@
         <v>101205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>147</v>
@@ -5463,13 +5508,13 @@
         <v>161775</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5529,13 @@
         <v>233191</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
@@ -5499,13 +5544,13 @@
         <v>187498</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>396</v>
@@ -5514,13 +5559,13 @@
         <v>420689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5633,13 @@
         <v>67443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -5603,13 +5648,13 @@
         <v>116991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>165</v>
@@ -5618,13 +5663,13 @@
         <v>184433</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5684,13 @@
         <v>435132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>385</v>
@@ -5654,13 +5699,13 @@
         <v>406093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>794</v>
@@ -5669,13 +5714,13 @@
         <v>841226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5788,13 @@
         <v>44000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5758,13 +5803,13 @@
         <v>65301</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -5773,13 +5818,13 @@
         <v>109301</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5839,13 @@
         <v>274565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>275</v>
@@ -5809,13 +5854,13 @@
         <v>271008</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>560</v>
@@ -5824,13 +5869,13 @@
         <v>545573</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5943,13 @@
         <v>85444</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -5913,13 +5958,13 @@
         <v>142492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>206</v>
@@ -5928,13 +5973,13 @@
         <v>227936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5994,13 @@
         <v>284520</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>235</v>
@@ -5964,13 +6009,13 @@
         <v>244791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>506</v>
@@ -5979,13 +6024,13 @@
         <v>529311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6098,13 @@
         <v>30489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6068,13 +6113,13 @@
         <v>50439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -6083,13 +6128,13 @@
         <v>80929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6149,13 @@
         <v>180732</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -6119,13 +6164,13 @@
         <v>168148</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>355</v>
@@ -6134,13 +6179,13 @@
         <v>348879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6253,13 @@
         <v>62236</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -6223,13 +6268,13 @@
         <v>83958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -6238,13 +6283,13 @@
         <v>146194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>148</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6304,13 @@
         <v>200887</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -6274,13 +6319,13 @@
         <v>189157</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -6289,10 +6334,10 @@
         <v>390044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>157</v>
@@ -6363,13 +6408,13 @@
         <v>120590</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -6378,13 +6423,13 @@
         <v>181111</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>269</v>
@@ -6393,13 +6438,13 @@
         <v>301701</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6459,13 @@
         <v>535968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>488</v>
@@ -6429,13 +6474,13 @@
         <v>510183</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>957</v>
@@ -6444,13 +6489,13 @@
         <v>1046151</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6563,13 @@
         <v>95579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="H25" s="7">
         <v>155</v>
@@ -6533,13 +6578,13 @@
         <v>185213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>251</v>
@@ -6548,13 +6593,13 @@
         <v>280792</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6614,13 @@
         <v>683004</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H26" s="7">
         <v>600</v>
@@ -6584,13 +6629,13 @@
         <v>640954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="M26" s="7">
         <v>1254</v>
@@ -6599,13 +6644,13 @@
         <v>1323958</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6718,13 @@
         <v>566350</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="H28" s="7">
         <v>806</v>
@@ -6688,13 +6733,13 @@
         <v>926711</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
         <v>1363</v>
@@ -6703,13 +6748,13 @@
         <v>1493061</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6769,13 @@
         <v>2828000</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>2532</v>
@@ -6739,13 +6784,13 @@
         <v>2617831</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="M29" s="7">
         <v>5206</v>
@@ -6754,13 +6799,13 @@
         <v>5445831</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37766A32-3FCD-468B-B5E0-844035D02CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B4085A-22CC-4D3E-BCDF-9ADC0E6B29B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6857,7 +6902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6961,46 +7006,46 @@
         <v>83</v>
       </c>
       <c r="D4" s="7">
-        <v>60837</v>
+        <v>68014</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="H4" s="7">
         <v>193</v>
       </c>
       <c r="I4" s="7">
-        <v>94069</v>
+        <v>98234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="M4" s="7">
         <v>276</v>
       </c>
       <c r="N4" s="7">
-        <v>154906</v>
+        <v>166248</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>254</v>
+        <v>487</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,46 +7057,46 @@
         <v>248</v>
       </c>
       <c r="D5" s="7">
-        <v>199461</v>
+        <v>243429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="H5" s="7">
         <v>345</v>
       </c>
       <c r="I5" s="7">
-        <v>177334</v>
+        <v>191401</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="M5" s="7">
         <v>593</v>
       </c>
       <c r="N5" s="7">
-        <v>376794</v>
+        <v>434829</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,7 +7108,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7078,7 +7123,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7093,7 +7138,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7116,46 +7161,46 @@
         <v>106</v>
       </c>
       <c r="D7" s="7">
-        <v>119590</v>
+        <v>114027</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="H7" s="7">
         <v>247</v>
       </c>
       <c r="I7" s="7">
-        <v>169371</v>
+        <v>155840</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="M7" s="7">
         <v>353</v>
       </c>
       <c r="N7" s="7">
-        <v>288961</v>
+        <v>269867</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>504</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,46 +7212,46 @@
         <v>275</v>
       </c>
       <c r="D8" s="7">
-        <v>398780</v>
+        <v>403492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>468</v>
       </c>
       <c r="I8" s="7">
-        <v>383656</v>
+        <v>357737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>743</v>
       </c>
       <c r="N8" s="7">
-        <v>782436</v>
+        <v>761229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,7 +7263,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518370</v>
+        <v>517519</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7233,7 +7278,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553027</v>
+        <v>513577</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7248,7 +7293,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071397</v>
+        <v>1031096</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7271,46 +7316,46 @@
         <v>113</v>
       </c>
       <c r="D10" s="7">
-        <v>84518</v>
+        <v>80739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
       </c>
       <c r="I10" s="7">
-        <v>115010</v>
+        <v>106912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>309</v>
       </c>
       <c r="N10" s="7">
-        <v>199527</v>
+        <v>187651</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,46 +7367,46 @@
         <v>245</v>
       </c>
       <c r="D11" s="7">
-        <v>235713</v>
+        <v>233338</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="H11" s="7">
         <v>333</v>
       </c>
       <c r="I11" s="7">
-        <v>252864</v>
+        <v>237193</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="M11" s="7">
         <v>578</v>
       </c>
       <c r="N11" s="7">
-        <v>488578</v>
+        <v>470531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,7 +7418,7 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320231</v>
+        <v>314077</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7388,7 +7433,7 @@
         <v>529</v>
       </c>
       <c r="I12" s="7">
-        <v>367874</v>
+        <v>344105</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7403,7 +7448,7 @@
         <v>887</v>
       </c>
       <c r="N12" s="7">
-        <v>688105</v>
+        <v>658182</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7426,46 +7471,46 @@
         <v>90</v>
       </c>
       <c r="D13" s="7">
-        <v>82039</v>
+        <v>78009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>533</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>250</v>
       </c>
       <c r="I13" s="7">
-        <v>138397</v>
+        <v>127986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>513</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
       </c>
       <c r="N13" s="7">
-        <v>220436</v>
+        <v>205995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,46 +7522,46 @@
         <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>233544</v>
+        <v>228175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>541</v>
       </c>
       <c r="H14" s="7">
         <v>338</v>
       </c>
       <c r="I14" s="7">
-        <v>284570</v>
+        <v>342493</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>521</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>534</v>
       </c>
       <c r="N14" s="7">
-        <v>518114</v>
+        <v>570668</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,7 +7573,7 @@
         <v>286</v>
       </c>
       <c r="D15" s="7">
-        <v>315583</v>
+        <v>306184</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7543,7 +7588,7 @@
         <v>588</v>
       </c>
       <c r="I15" s="7">
-        <v>422967</v>
+        <v>470479</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7558,7 +7603,7 @@
         <v>874</v>
       </c>
       <c r="N15" s="7">
-        <v>738550</v>
+        <v>776663</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7581,46 +7626,46 @@
         <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>30140</v>
+        <v>27461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>137</v>
       </c>
       <c r="I16" s="7">
-        <v>56283</v>
+        <v>51046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>419</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
       </c>
       <c r="N16" s="7">
-        <v>86423</v>
+        <v>78508</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>550</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>532</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,46 +7677,46 @@
         <v>230</v>
       </c>
       <c r="D17" s="7">
-        <v>166030</v>
+        <v>150778</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>534</v>
+        <v>441</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="H17" s="7">
         <v>350</v>
       </c>
       <c r="I17" s="7">
-        <v>173403</v>
+        <v>155601</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>428</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>580</v>
       </c>
       <c r="N17" s="7">
-        <v>339433</v>
+        <v>306378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>27</v>
+        <v>556</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>540</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,7 +7728,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196170</v>
+        <v>178239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7698,7 +7743,7 @@
         <v>487</v>
       </c>
       <c r="I18" s="7">
-        <v>229686</v>
+        <v>206647</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7713,7 +7758,7 @@
         <v>765</v>
       </c>
       <c r="N18" s="7">
-        <v>425856</v>
+        <v>384886</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7736,46 +7781,46 @@
         <v>129</v>
       </c>
       <c r="D19" s="7">
-        <v>81178</v>
+        <v>77848</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>542</v>
+        <v>487</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="H19" s="7">
         <v>222</v>
       </c>
       <c r="I19" s="7">
-        <v>105082</v>
+        <v>97947</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="M19" s="7">
         <v>351</v>
       </c>
       <c r="N19" s="7">
-        <v>186260</v>
+        <v>175794</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>549</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,46 +7832,46 @@
         <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>195549</v>
+        <v>191316</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>551</v>
+        <v>492</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>552</v>
+        <v>497</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
       </c>
       <c r="I20" s="7">
-        <v>170540</v>
+        <v>159109</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
       </c>
       <c r="N20" s="7">
-        <v>366089</v>
+        <v>350426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>557</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,7 +7883,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276727</v>
+        <v>269164</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7853,7 +7898,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7868,7 +7913,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552349</v>
+        <v>526220</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7891,46 +7936,46 @@
         <v>143</v>
       </c>
       <c r="D22" s="7">
-        <v>132086</v>
+        <v>126749</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>571</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>333</v>
       </c>
       <c r="I22" s="7">
-        <v>211884</v>
+        <v>195232</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>220</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="M22" s="7">
         <v>476</v>
       </c>
       <c r="N22" s="7">
-        <v>343971</v>
+        <v>321981</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,46 +7987,46 @@
         <v>451</v>
       </c>
       <c r="D23" s="7">
-        <v>491061</v>
+        <v>493152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>291</v>
+        <v>578</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>579</v>
       </c>
       <c r="H23" s="7">
         <v>623</v>
       </c>
       <c r="I23" s="7">
-        <v>589722</v>
+        <v>651632</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>1074</v>
       </c>
       <c r="N23" s="7">
-        <v>1080782</v>
+        <v>1144784</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>568</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,7 +8038,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>623147</v>
+        <v>619901</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8008,7 +8053,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>801606</v>
+        <v>846864</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8023,7 +8068,7 @@
         <v>1550</v>
       </c>
       <c r="N24" s="7">
-        <v>1424753</v>
+        <v>1466765</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8046,46 +8091,46 @@
         <v>150</v>
       </c>
       <c r="D25" s="7">
-        <v>186374</v>
+        <v>359818</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>572</v>
+        <v>214</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>573</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>319</v>
       </c>
       <c r="I25" s="7">
-        <v>231669</v>
+        <v>192119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>16</v>
+        <v>587</v>
       </c>
       <c r="M25" s="7">
         <v>469</v>
       </c>
       <c r="N25" s="7">
-        <v>418043</v>
+        <v>551937</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,46 +8142,46 @@
         <v>610</v>
       </c>
       <c r="D26" s="7">
-        <v>671263</v>
+        <v>567366</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>580</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>581</v>
+        <v>222</v>
       </c>
       <c r="H26" s="7">
         <v>739</v>
       </c>
       <c r="I26" s="7">
-        <v>633717</v>
+        <v>523122</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>25</v>
+        <v>593</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="M26" s="7">
         <v>1349</v>
       </c>
       <c r="N26" s="7">
-        <v>1304980</v>
+        <v>1090488</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,7 +8193,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>857637</v>
+        <v>927184</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8163,7 +8208,7 @@
         <v>1058</v>
       </c>
       <c r="I27" s="7">
-        <v>865386</v>
+        <v>715241</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8178,7 +8223,7 @@
         <v>1818</v>
       </c>
       <c r="N27" s="7">
-        <v>1723023</v>
+        <v>1642425</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8201,46 +8246,46 @@
         <v>862</v>
       </c>
       <c r="D28" s="7">
-        <v>776762</v>
+        <v>932665</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H28" s="7">
         <v>1897</v>
       </c>
       <c r="I28" s="7">
-        <v>1121765</v>
+        <v>1025315</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="M28" s="7">
         <v>2759</v>
       </c>
       <c r="N28" s="7">
-        <v>1898528</v>
+        <v>1957981</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>593</v>
+        <v>94</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,46 +8297,46 @@
         <v>2496</v>
       </c>
       <c r="D29" s="7">
-        <v>2591400</v>
+        <v>2511046</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="H29" s="7">
         <v>3434</v>
       </c>
       <c r="I29" s="7">
-        <v>2665807</v>
+        <v>2618288</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M29" s="7">
         <v>5930</v>
       </c>
       <c r="N29" s="7">
-        <v>5257206</v>
+        <v>5129333</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>602</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,7 +8348,7 @@
         <v>3358</v>
       </c>
       <c r="D30" s="7">
-        <v>3368162</v>
+        <v>3443711</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8318,7 +8363,7 @@
         <v>5331</v>
       </c>
       <c r="I30" s="7">
-        <v>3787572</v>
+        <v>3643603</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8333,7 +8378,7 @@
         <v>8689</v>
       </c>
       <c r="N30" s="7">
-        <v>7155734</v>
+        <v>7087314</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
